--- a/archivos/single-ACTUALIZADO.xlsx
+++ b/archivos/single-ACTUALIZADO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -486,6 +486,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/archivos/single-ACTUALIZADO.xlsx
+++ b/archivos/single-ACTUALIZADO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
           <t>Nuevo Precio</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Última fecha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,8 +489,13 @@
           <t>601.598 - (Oscar David)</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-01-16 00:00:00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/archivos/single-ACTUALIZADO.xlsx
+++ b/archivos/single-ACTUALIZADO.xlsx
@@ -479,14 +479,10 @@
           <t>MAXICONSUMO</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1275</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>601.598 - (Oscar David)</t>
+          <t>$ 453,47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
